--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/60secondeye.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/60secondeye.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23702"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/WestmoreBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3CCCEFE-B7FB-46A3-B0E0-3240F49645D6}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4B5B6274-A8CF-45C7-881A-B84B6E8A527F}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18450" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -686,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1013,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1161,13 +1164,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="14" t="s">
@@ -1685,53 +1688,53 @@
       <c r="A43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="B44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="15">
       <c r="A46" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" ht="15">
       <c r="A47" s="14" t="s">
@@ -2180,12 +2183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2350,7 +2347,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2359,14 +2356,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/60secondeye.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/60secondeye.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/WestmoreBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4B5B6274-A8CF-45C7-881A-B84B6E8A527F}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF249AF6-BA9C-48A1-9C10-7F856A5C8456}"/>
   <bookViews>
     <workbookView xWindow="-18450" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -686,9 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1016,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1164,13 +1161,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="14" t="s">
@@ -1688,53 +1685,53 @@
       <c r="A43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15">
       <c r="A46" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="B46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15">
       <c r="A47" s="14" t="s">
@@ -2183,6 +2180,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2347,23 +2359,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2371,5 +2368,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/60secondeye.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/60secondeye.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/WestmoreBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF249AF6-BA9C-48A1-9C10-7F856A5C8456}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF3698F9-3731-41AE-9455-08B16B69F19A}"/>
   <bookViews>
     <workbookView xWindow="-18450" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="142">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -88,22 +88,22 @@
     <t>Kit</t>
   </si>
   <si>
-    <t>Youthful Eye &amp; Face Essentials - Light</t>
-  </si>
-  <si>
-    <t>Youthful Eye &amp; Face Essentials - Medium</t>
-  </si>
-  <si>
-    <t>Youthful Eye &amp; Face Essentials - Tan</t>
-  </si>
-  <si>
-    <t>Youthful Eye Essentials</t>
+    <t>60 Second Eye &amp; Face Essentials - Light</t>
+  </si>
+  <si>
+    <t>60 Second Eye &amp; Face Essentials - Medium</t>
+  </si>
+  <si>
+    <t>60 Second Eye &amp; Face Essentials - Tan</t>
+  </si>
+  <si>
+    <t>60 Second Eye Essentials</t>
   </si>
   <si>
     <t>Actual Kit Name (as in site)</t>
   </si>
   <si>
-    <t>Youthful Eye &amp; Face Essentials</t>
+    <t>60 Second Eye &amp; Face Essentials</t>
   </si>
   <si>
     <t>KitShade</t>
@@ -440,6 +440,18 @@
     <t>End</t>
   </si>
   <si>
+    <t>Youthful Eye &amp; Face Essentials - Light</t>
+  </si>
+  <si>
+    <t>Youthful Eye &amp; Face Essentials - Medium</t>
+  </si>
+  <si>
+    <t>Youthful Eye &amp; Face Essentials - Tan</t>
+  </si>
+  <si>
+    <t>Youthful Eye Essentials</t>
+  </si>
+  <si>
     <t>Dual Sided Brow Brush</t>
   </si>
   <si>
@@ -453,6 +465,9 @@
   </si>
   <si>
     <t>WY3A0058,WY1A0249</t>
+  </si>
+  <si>
+    <t>Youthful Eye &amp; Face Essentials</t>
   </si>
 </sst>
 </file>
@@ -558,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -631,12 +646,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -695,6 +734,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1098,16 +1149,16 @@
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1115,16 +1166,16 @@
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1960,19 +2011,19 @@
   <sheetData>
     <row r="7" spans="2:10" ht="16.5">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>105</v>
@@ -2049,21 +2100,21 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>43</v>
@@ -2098,7 +2149,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>41</v>
@@ -2112,7 +2163,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>82</v>
@@ -2186,15 +2237,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2359,14 +2401,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>